--- a/agents/Othello/csv/multiTrainOthello-20Agents.xlsx
+++ b/agents/Othello/csv/multiTrainOthello-20Agents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\Othello\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117345AC-AF53-464C-8C07-285E6CABF4D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52B6EE-CFE4-4463-B4DC-F676501C8698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multiTrainOthello-20Agents" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'multiTrainOthello-20Agents'!$A$3:$K$903</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,13 +935,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74:I722"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1618,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2878,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2948,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2983,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4278,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4523,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -5608,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -5678,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -5748,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -5993,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -6728,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -6798,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -6833,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -6973,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -7008,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -7078,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -7113,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -7183,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -7253,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -7918,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -7988,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -8023,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>18</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>18</v>
       </c>
@@ -8128,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>18</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>18</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -8268,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -8303,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -8338,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>18</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>18</v>
       </c>
@@ -8408,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>18</v>
       </c>
@@ -8513,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -9178,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -9248,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -9318,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -9388,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -9493,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -9528,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -9633,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -9668,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -9738,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -10438,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -10473,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -10508,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -10578,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -10683,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -10753,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -10788,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -10858,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -10893,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -10928,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -10963,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -10998,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>21</v>
       </c>
@@ -11768,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>21</v>
       </c>
@@ -11803,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -11838,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>21</v>
       </c>
@@ -11873,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>21</v>
       </c>
@@ -11908,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>21</v>
       </c>
@@ -11943,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>21</v>
       </c>
@@ -11978,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -12013,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -12048,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>21</v>
       </c>
@@ -12083,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -12118,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -12153,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -12188,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -12223,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -12293,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -12958,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>22</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -13028,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>22</v>
       </c>
@@ -13063,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>22</v>
       </c>
@@ -13098,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>22</v>
       </c>
@@ -13133,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>22</v>
       </c>
@@ -13168,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>22</v>
       </c>
@@ -13203,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>22</v>
       </c>
@@ -13238,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>22</v>
       </c>
@@ -13273,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>22</v>
       </c>
@@ -13308,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>22</v>
       </c>
@@ -13343,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>22</v>
       </c>
@@ -13378,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>22</v>
       </c>
@@ -13413,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>22</v>
       </c>
@@ -13448,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>22</v>
       </c>
@@ -13483,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>22</v>
       </c>
@@ -13518,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>22</v>
       </c>
@@ -13553,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>22</v>
       </c>
@@ -14218,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -14253,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>13</v>
       </c>
@@ -14288,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -14323,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -14358,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -14393,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>13</v>
       </c>
@@ -14428,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -14463,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -14498,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -14533,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -14603,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -14638,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -14673,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>13</v>
       </c>
@@ -14708,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -14743,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -14813,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>13</v>
       </c>
@@ -15478,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>14</v>
       </c>
@@ -15513,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>14</v>
       </c>
@@ -15548,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>14</v>
       </c>
@@ -15583,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>14</v>
       </c>
@@ -15618,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>14</v>
       </c>
@@ -15653,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>14</v>
       </c>
@@ -15688,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -15723,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -15758,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>14</v>
       </c>
@@ -15793,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>14</v>
       </c>
@@ -15828,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>14</v>
       </c>
@@ -15863,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>14</v>
       </c>
@@ -15898,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>14</v>
       </c>
@@ -15933,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -15968,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -16003,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>14</v>
       </c>
@@ -16038,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>14</v>
       </c>
@@ -16738,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -16773,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>15</v>
       </c>
@@ -16808,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>15</v>
       </c>
@@ -16843,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>15</v>
       </c>
@@ -16878,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>15</v>
       </c>
@@ -16913,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -16948,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -16983,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>15</v>
       </c>
@@ -17018,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>15</v>
       </c>
@@ -17053,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>15</v>
       </c>
@@ -17088,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>15</v>
       </c>
@@ -17123,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>15</v>
       </c>
@@ -17158,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>15</v>
       </c>
@@ -17193,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>15</v>
       </c>
@@ -17228,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>15</v>
       </c>
@@ -17263,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>15</v>
       </c>
@@ -17333,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>15</v>
       </c>
@@ -17998,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>16</v>
       </c>
@@ -18033,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>16</v>
       </c>
@@ -18068,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>16</v>
       </c>
@@ -18103,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>16</v>
       </c>
@@ -18138,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>16</v>
       </c>
@@ -18173,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>16</v>
       </c>
@@ -18208,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>16</v>
       </c>
@@ -18243,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>16</v>
       </c>
@@ -18278,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>16</v>
       </c>
@@ -18313,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>16</v>
       </c>
@@ -18348,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>16</v>
       </c>
@@ -18383,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>16</v>
       </c>
@@ -18418,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>16</v>
       </c>
@@ -18453,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>16</v>
       </c>
@@ -18488,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>16</v>
       </c>
@@ -18523,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>16</v>
       </c>
@@ -18558,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>16</v>
       </c>
@@ -18593,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>16</v>
       </c>
@@ -19258,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>17</v>
       </c>
@@ -19293,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>17</v>
       </c>
@@ -19328,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>17</v>
       </c>
@@ -19363,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>17</v>
       </c>
@@ -19398,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>17</v>
       </c>
@@ -19433,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>17</v>
       </c>
@@ -19468,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>17</v>
       </c>
@@ -19503,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>17</v>
       </c>
@@ -19538,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>17</v>
       </c>
@@ -19573,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>17</v>
       </c>
@@ -19608,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>17</v>
       </c>
@@ -19643,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>17</v>
       </c>
@@ -19678,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>17</v>
       </c>
@@ -19713,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>17</v>
       </c>
@@ -19748,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>17</v>
       </c>
@@ -19783,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>17</v>
       </c>
@@ -19818,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>17</v>
       </c>
@@ -19853,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>17</v>
       </c>
@@ -20518,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>18</v>
       </c>
@@ -20553,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>18</v>
       </c>
@@ -20588,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>18</v>
       </c>
@@ -20623,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>18</v>
       </c>
@@ -20658,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>18</v>
       </c>
@@ -20693,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>18</v>
       </c>
@@ -20728,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>18</v>
       </c>
@@ -20763,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>18</v>
       </c>
@@ -20798,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>18</v>
       </c>
@@ -20833,7 +20838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>18</v>
       </c>
@@ -20868,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>18</v>
       </c>
@@ -20903,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>18</v>
       </c>
@@ -20938,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>18</v>
       </c>
@@ -20973,7 +20978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>18</v>
       </c>
@@ -21008,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>18</v>
       </c>
@@ -21043,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>18</v>
       </c>
@@ -21078,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>18</v>
       </c>
@@ -21113,7 +21118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>18</v>
       </c>
@@ -21778,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>19</v>
       </c>
@@ -21813,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>19</v>
       </c>
@@ -21848,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -21883,7 +21888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>19</v>
       </c>
@@ -21918,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>19</v>
       </c>
@@ -21953,7 +21958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>19</v>
       </c>
@@ -21988,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>19</v>
       </c>
@@ -22023,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>19</v>
       </c>
@@ -22058,7 +22063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>19</v>
       </c>
@@ -22093,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>19</v>
       </c>
@@ -22128,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>19</v>
       </c>
@@ -22163,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>19</v>
       </c>
@@ -22198,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>19</v>
       </c>
@@ -22233,7 +22238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>19</v>
       </c>
@@ -22268,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>19</v>
       </c>
@@ -22303,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>19</v>
       </c>
@@ -22338,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>19</v>
       </c>
@@ -22373,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>19</v>
       </c>
@@ -23038,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>20</v>
       </c>
@@ -23073,7 +23078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>20</v>
       </c>
@@ -23108,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>20</v>
       </c>
@@ -23143,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>20</v>
       </c>
@@ -23178,7 +23183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>20</v>
       </c>
@@ -23213,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>20</v>
       </c>
@@ -23248,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>20</v>
       </c>
@@ -23283,7 +23288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>20</v>
       </c>
@@ -23318,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>20</v>
       </c>
@@ -23353,7 +23358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>20</v>
       </c>
@@ -23388,7 +23393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>20</v>
       </c>
@@ -23423,7 +23428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>20</v>
       </c>
@@ -23458,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>20</v>
       </c>
@@ -23493,7 +23498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>20</v>
       </c>
@@ -23528,7 +23533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>20</v>
       </c>
@@ -23563,7 +23568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>20</v>
       </c>
@@ -23598,7 +23603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>20</v>
       </c>
@@ -23633,7 +23638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>20</v>
       </c>
@@ -24298,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>21</v>
       </c>
@@ -24333,7 +24338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>21</v>
       </c>
@@ -24368,7 +24373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>21</v>
       </c>
@@ -24403,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>21</v>
       </c>
@@ -24438,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>21</v>
       </c>
@@ -24473,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>21</v>
       </c>
@@ -24508,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>21</v>
       </c>
@@ -24543,7 +24548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>21</v>
       </c>
@@ -24578,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>21</v>
       </c>
@@ -24613,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>21</v>
       </c>
@@ -24648,7 +24653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>21</v>
       </c>
@@ -24683,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>21</v>
       </c>
@@ -24718,7 +24723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>21</v>
       </c>
@@ -24753,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>21</v>
       </c>
@@ -24788,7 +24793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>21</v>
       </c>
@@ -24823,7 +24828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>21</v>
       </c>
@@ -24858,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>21</v>
       </c>
@@ -25558,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>22</v>
       </c>
@@ -25593,7 +25598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>22</v>
       </c>
@@ -25628,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>22</v>
       </c>
@@ -25663,7 +25668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>22</v>
       </c>
@@ -25698,7 +25703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>22</v>
       </c>
@@ -25733,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>22</v>
       </c>
@@ -25768,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>22</v>
       </c>
@@ -25803,7 +25808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>22</v>
       </c>
@@ -25838,7 +25843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>22</v>
       </c>
@@ -25873,7 +25878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>22</v>
       </c>
@@ -25908,7 +25913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>22</v>
       </c>
@@ -25943,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>22</v>
       </c>
@@ -25978,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>22</v>
       </c>
@@ -26013,7 +26018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>22</v>
       </c>
@@ -26048,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>22</v>
       </c>
@@ -26083,7 +26088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>22</v>
       </c>
@@ -26153,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>22</v>
       </c>
@@ -32489,10 +32494,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K903">
+  <autoFilter ref="A3:K903" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="10000"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0.5"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
